--- a/src/assets/nomenclatura.xlsx
+++ b/src/assets/nomenclatura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegandrianov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegandrianov/Documents/Projects/Create-Campony/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,17 +336,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -360,12 +356,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
